--- a/Output/Excel/df_weight.xlsx
+++ b/Output/Excel/df_weight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,16 @@
           <t>yield_Spain_Sunflower_weight</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTION_HARVEST_LAST_YEAR_weight</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTION_HARVEST_2_YEARS_weight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -552,70 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4821687721821328</v>
+        <v>-0.217022959181882</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002822800582336412</v>
+        <v>0.196129723316171</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1804302463755413</v>
+        <v>0.1491042597602451</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3994609391703858</v>
+        <v>-0.0464726406754905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2148422598683993</v>
+        <v>0.07098745846718679</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005751614877579332</v>
+        <v>0.4295008608997932</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1104060698791265</v>
+        <v>0.3563677207045408</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0998849351980983</v>
+        <v>-0.3026994001591166</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1725255514827492</v>
+        <v>-0.3241933966481951</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009717517239507712</v>
+        <v>0.06820042595153754</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3982673187956298</v>
+        <v>-0.3330180385188755</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3765847471345774</v>
+        <v>-0.2416554772533623</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02479276827092861</v>
+        <v>0.4347189915724712</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5663335892826591</v>
+        <v>0.4054129038448288</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2932818566384247</v>
+        <v>0.341074332583038</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2836690632208226</v>
+        <v>0.05665895320453253</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5712428854878931</v>
+        <v>0.3462259963098201</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3910123399528771</v>
+        <v>0.334029404208045</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.3116690137610165</v>
+        <v>-0.005829470248189941</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1180643584376457</v>
+        <v>-0.3112571222734974</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.3643899017553927</v>
+        <v>-0.09197892639620203</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.333597851404296</v>
+        <v>0.1287197163587651</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2832281286204004</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.3028011463334837</v>
       </c>
     </row>
     <row r="3">
@@ -625,70 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4854959881265354</v>
+        <v>-0.2223590038136158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03806865124517521</v>
+        <v>0.2402692921725391</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1447336758631298</v>
+        <v>0.1858181729537656</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3972796917978588</v>
+        <v>-0.05558690097515886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2118208953057513</v>
+        <v>0.0657404402612531</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01621055987851935</v>
+        <v>0.3945715711678011</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1206406411715155</v>
+        <v>0.3229115349415623</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1002940878750235</v>
+        <v>-0.2912917473560054</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1681267550265249</v>
+        <v>-0.305664956714959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05195302921553337</v>
+        <v>0.1258201802377655</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3778929695903905</v>
+        <v>-0.30698054635754</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3548918516790757</v>
+        <v>-0.2160605588166432</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04200193684412098</v>
+        <v>0.447868336293804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5642725616571473</v>
+        <v>0.4178319513074781</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2940243283868823</v>
+        <v>0.3485111260926429</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2870417874924676</v>
+        <v>0.04255243163897113</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5649602448204659</v>
+        <v>0.3436315370647332</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3878568779465907</v>
+        <v>0.3310183364598082</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2775593035753663</v>
+        <v>0.03823476106710211</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.147124848485766</v>
+        <v>-0.3354929695819749</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.3765009029915339</v>
+        <v>-0.1156857173939995</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.3307112447994697</v>
+        <v>0.1140263640750203</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2753647889062016</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2993057598739772</v>
       </c>
     </row>
     <row r="4">
@@ -698,70 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4885600629880635</v>
+        <v>-0.2382843567138807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05405058533649496</v>
+        <v>0.3039676207044748</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.141344983633798</v>
+        <v>0.23880167753332</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4263421276305497</v>
+        <v>-0.07387376547817835</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1991185259420817</v>
+        <v>0.05462441886413886</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08828797988366083</v>
+        <v>0.3317762494355453</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1797151590670348</v>
+        <v>0.269423746731712</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06771620306999525</v>
+        <v>-0.2774361630188845</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1255999774093683</v>
+        <v>-0.2805656149252949</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1188577040094758</v>
+        <v>0.2198678642566537</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3605927778446601</v>
+        <v>-0.2719105125409758</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3446652458585164</v>
+        <v>-0.1843875705905879</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02139273950685101</v>
+        <v>0.443679930664666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5881937321265913</v>
+        <v>0.4113389961307387</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3031575390957543</v>
+        <v>0.3373568255289288</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.3114449136860275</v>
+        <v>0.02120158844636798</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5541717532428045</v>
+        <v>0.3077962418003141</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3701515798447756</v>
+        <v>0.2999900581116143</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.2601766307270486</v>
+        <v>0.08391392648370447</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1328501785358261</v>
+        <v>-0.3692187863802961</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.4049036853184543</v>
+        <v>-0.153017202694418</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.3738219896044876</v>
+        <v>0.08770627909179168</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2668403655616821</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2806666052887946</v>
       </c>
     </row>
     <row r="5">
@@ -771,70 +799,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4728298177868002</v>
+        <v>-0.1838588213752462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0718309887755318</v>
+        <v>0.3437578180929501</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1280109335284639</v>
+        <v>0.281414974806201</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4496792714457975</v>
+        <v>-0.0909380111532239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.206621894692318</v>
+        <v>0.04926950470333095</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1360187876412604</v>
+        <v>0.2844071580101373</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2275841186386546</v>
+        <v>0.2244275634377926</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04449706684771053</v>
+        <v>-0.2565313741076714</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.09732853320752181</v>
+        <v>-0.2453383128840496</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1637537012292593</v>
+        <v>0.3026377511473234</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3561423179806674</v>
+        <v>-0.2717858166620488</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3460776568382871</v>
+        <v>-0.1858199899105376</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01316474251447093</v>
+        <v>0.4737822460927078</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6212859316136676</v>
+        <v>0.4827033351224577</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3281883444313383</v>
+        <v>0.4051895460945149</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3121867473114677</v>
+        <v>0.04864540176062148</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5901994709453332</v>
+        <v>0.3589020505308169</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4035663997957053</v>
+        <v>0.3578766443667075</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.2240432644586182</v>
+        <v>0.1730792733106772</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1380477386553333</v>
+        <v>-0.3832130774443702</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.4259394667725824</v>
+        <v>-0.1672397254285201</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.3932440021296759</v>
+        <v>0.0838405619069104</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2680888886905649</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.2801752840299473</v>
       </c>
     </row>
     <row r="6">
@@ -844,70 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4841654458747728</v>
+        <v>-0.1585673453202044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08390109863746192</v>
+        <v>0.3997863597208026</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1379279071211415</v>
+        <v>0.3134942086308834</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4933041748920002</v>
+        <v>-0.1332218315522553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2265291050863509</v>
+        <v>0.0588611417655839</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2131866812795744</v>
+        <v>0.2047849475794178</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3078286803614882</v>
+        <v>0.1402611383782418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01333474379261362</v>
+        <v>-0.2358643832693262</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.06323024143422486</v>
+        <v>-0.2091210587096527</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1930608736416789</v>
+        <v>0.3847190406503169</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3356688855924296</v>
+        <v>-0.248576386604651</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3444012023767375</v>
+        <v>-0.1800099497370669</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.05477764962622615</v>
+        <v>0.4341274167342396</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6193852434735174</v>
+        <v>0.494234390649135</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3047235695595993</v>
+        <v>0.4092962028495651</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3492124637736097</v>
+        <v>0.03109078067150641</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6034504387539288</v>
+        <v>0.3706605201568388</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3995800126269122</v>
+        <v>0.3691807172969795</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.2498333090847127</v>
+        <v>0.1842116328171545</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.1015979470347941</v>
+        <v>-0.3484970067949408</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4564195067419131</v>
+        <v>-0.1924341695888711</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4574018672501643</v>
+        <v>0.01614495629812256</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.27237581690158</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2408896758598554</v>
       </c>
     </row>
     <row r="7">
@@ -917,70 +957,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5020473444663587</v>
+        <v>-0.1551672858190118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04814987966537822</v>
+        <v>0.3894113777002703</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.182460070138675</v>
+        <v>0.2932590852650755</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.513130067806659</v>
+        <v>-0.1345087971603023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2343298166739353</v>
+        <v>0.04798040099240478</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2332262194090499</v>
+        <v>0.2272443127725114</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3253723418741119</v>
+        <v>0.1721753578152428</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003301671928555791</v>
+        <v>-0.243346504488323</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.05440287298588944</v>
+        <v>-0.2162131346819771</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1689418032139849</v>
+        <v>0.3978197022332018</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.3474907681127291</v>
+        <v>-0.2850225378506269</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.3654870919625092</v>
+        <v>-0.2186872743567791</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0968267622649843</v>
+        <v>0.4491388343291546</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6272530513540596</v>
+        <v>0.5394023865798127</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2977516993960859</v>
+        <v>0.4560269784623106</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.3589394658126789</v>
+        <v>0.0683930769813456</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6308746366801927</v>
+        <v>0.4205719336402686</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4101141508603735</v>
+        <v>0.4172903349649713</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.2907070636697961</v>
+        <v>0.1740202514766919</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.06253115489591836</v>
+        <v>-0.310025773220001</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.4595115021277423</v>
+        <v>-0.1702658779385278</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.4878938148437197</v>
+        <v>0.0123986459282466</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2894248953002467</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.253861672569262</v>
       </c>
     </row>
     <row r="8">
@@ -990,70 +1036,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1323345968461351</v>
+        <v>-0.1484177895179019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2534228079491785</v>
+        <v>0.4507117896879267</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06147602475796846</v>
+        <v>0.3297081191126862</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3309346460248521</v>
+        <v>-0.1555118205186724</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07514253900323233</v>
+        <v>0.03252542602002954</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01355603721688992</v>
+        <v>0.2110654923365799</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06439042955160451</v>
+        <v>0.1601262584258181</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1086533833201702</v>
+        <v>-0.2339866113094888</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09535228517006575</v>
+        <v>-0.2025302814194182</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3999138827897831</v>
+        <v>0.4485522462764533</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3623157747348421</v>
+        <v>-0.2733421097697292</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3342583280230864</v>
+        <v>-0.21925541403427</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2154651026491033</v>
+        <v>0.4058155885054076</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6552796748049496</v>
+        <v>0.5309540045732186</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5041621429614616</v>
+        <v>0.4566459975813799</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.104856058731733</v>
+        <v>0.06637997554908638</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5433573777453586</v>
+        <v>0.433290322518194</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4922783901311519</v>
+        <v>0.4374800096689642</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.007860987656194328</v>
+        <v>0.1853500468409477</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1105068502882808</v>
+        <v>-0.3012340857205558</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.3104228329073671</v>
+        <v>-0.210496937090612</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.2864249615786186</v>
+        <v>-0.05172621323918971</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2778735005617901</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.2412272068182383</v>
       </c>
     </row>
     <row r="9">
@@ -1063,70 +1115,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1444956951738801</v>
+        <v>-0.1609177116419035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2879762784629438</v>
+        <v>0.5167904980732176</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01066708181006975</v>
+        <v>0.2940399803837109</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4302693148271184</v>
+        <v>-0.2719846726454364</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09317649738947212</v>
+        <v>0.05053140110305802</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0995931246442996</v>
+        <v>0.1254042330517046</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1622416265444742</v>
+        <v>0.05423221598294243</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07595695717713491</v>
+        <v>-0.2104236699831925</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06003006962558211</v>
+        <v>-0.1736491574071517</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3935171055519664</v>
+        <v>0.4516427440597898</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3201071423266362</v>
+        <v>-0.2161609762675143</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.3390904746291699</v>
+        <v>-0.2152579729723927</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06976050287903698</v>
+        <v>0.2404620082019298</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6162087343575056</v>
+        <v>0.4531960359353892</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4417928980004576</v>
+        <v>0.3737727001967253</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1903937851225805</v>
+        <v>-0.02834706542275383</v>
       </c>
       <c r="R9" t="n">
-        <v>0.550010585341175</v>
+        <v>0.4287211307884711</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4812604935349096</v>
+        <v>0.4234919033330968</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0856337747690525</v>
+        <v>0.1046831123852817</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.08193477889182391</v>
+        <v>-0.2874391401437765</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.412837080375577</v>
+        <v>-0.3342832472115485</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.4368855208125803</v>
+        <v>-0.2412831777614383</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2780938976385213</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.184005976462199</v>
       </c>
     </row>
     <row r="10">
@@ -1136,70 +1194,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1078381561036232</v>
+        <v>-0.124547359597443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270025605202928</v>
+        <v>0.5203252107584404</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09199605220886965</v>
+        <v>0.1862505756604947</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.536657586572677</v>
+        <v>-0.406692663038809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06638626396898108</v>
+        <v>0.01362510947676091</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.167888711830676</v>
+        <v>0.05709661911611951</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2054889366990121</v>
+        <v>0.01600260538338745</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03902521487596521</v>
+        <v>-0.1798091315133453</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01595864480366758</v>
+        <v>-0.1320442754079776</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3798531421782847</v>
+        <v>0.4464002355583151</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2989400906185692</v>
+        <v>-0.1832456278821908</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.3578536319135798</v>
+        <v>-0.2299716518186871</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.01311286126210829</v>
+        <v>0.1484633731084875</v>
       </c>
       <c r="O10" t="n">
-        <v>0.613736841201839</v>
+        <v>0.4291345040686269</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4308454353199613</v>
+        <v>0.355388255940249</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.2263495579060948</v>
+        <v>-0.06183394271054602</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5629411415457685</v>
+        <v>0.4348717200485513</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4816727337442036</v>
+        <v>0.4239842351739055</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.1311957317746535</v>
+        <v>0.06183782990662878</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.08717566443929375</v>
+        <v>-0.315126309627802</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.494125875630624</v>
+        <v>-0.4375116697804942</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.5359524280845969</v>
+        <v>-0.3667294408829808</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2851957575691534</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1569574378203795</v>
       </c>
     </row>
     <row r="11">
@@ -1209,70 +1273,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03522422290837449</v>
+        <v>-0.07512740871475967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2086047817085263</v>
+        <v>0.5364649858456977</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1836662969698825</v>
+        <v>0.1432094145043224</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6038106734529518</v>
+        <v>-0.4762381015257334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08331170136205467</v>
+        <v>0.02269709276509558</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.223315286106104</v>
+        <v>0.04644979562074543</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2602495128347852</v>
+        <v>0.002956260447853298</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0038978058348488</v>
+        <v>-0.1724268679314977</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02561258239887034</v>
+        <v>-0.1165523824753844</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3496650853196366</v>
+        <v>0.4535489211301127</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.292166108956749</v>
+        <v>-0.1512097031668115</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3648964992150997</v>
+        <v>-0.2145630021014016</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.04725354955729799</v>
+        <v>0.1532178660272979</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6462579453375955</v>
+        <v>0.4184296998786706</v>
       </c>
       <c r="P11" t="n">
-        <v>0.432861337392642</v>
+        <v>0.3496691443556935</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2775446794740777</v>
+        <v>-0.08944971394033505</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5930770962061507</v>
+        <v>0.4493077264526736</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4848761307821342</v>
+        <v>0.4368168791989953</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1674159620378273</v>
+        <v>0.06950773269216459</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.09500097522375571</v>
+        <v>-0.4083799344358986</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.5380624467981689</v>
+        <v>-0.4995801219031418</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.5790664353833533</v>
+        <v>-0.3795551239466596</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2898882016330721</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.1543242340448006</v>
       </c>
     </row>
     <row r="12">
@@ -1282,70 +1352,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1213224960791926</v>
+        <v>0.06189493015967279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04817078042798614</v>
+        <v>0.4347756159630697</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3141568850484058</v>
+        <v>0.03443730838935314</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6000502086780893</v>
+        <v>-0.457991146522008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09714806876846911</v>
+        <v>0.02942981268101453</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2158304113013673</v>
+        <v>0.1529988423780832</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2540613652099198</v>
+        <v>0.104797023645232</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008200545570370929</v>
+        <v>-0.2401903949911149</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01635048139541053</v>
+        <v>-0.1891145470996083</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3023169508543238</v>
+        <v>0.465894406719579</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3560446667622614</v>
+        <v>-0.2309297224326379</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.425820356503588</v>
+        <v>-0.2936705338442738</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.03598202315381267</v>
+        <v>0.2540137462745823</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7216901078744469</v>
+        <v>0.5059317665271763</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4949458964864791</v>
+        <v>0.4656527906142556</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2283369734360983</v>
+        <v>0.05666746683270393</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6225551633168558</v>
+        <v>0.4889423968294958</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4957224284422188</v>
+        <v>0.4917975353071526</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.1461990174280442</v>
+        <v>0.1936657180265119</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.08244812187835783</v>
+        <v>-0.5307633485110955</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.5004325487145233</v>
+        <v>-0.4637410512633784</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.5320250748331901</v>
+        <v>-0.2320968458631231</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3290200425002315</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.3284240845483668</v>
       </c>
     </row>
     <row r="13">
@@ -1355,70 +1431,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2015322769879319</v>
+        <v>0.1411397308311519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0254885197075917</v>
+        <v>0.4429145707258931</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.33071774759025</v>
+        <v>0.03258954604715886</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6106694626412017</v>
+        <v>-0.4824105043896217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09415251717377232</v>
+        <v>0.02009438342924586</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2717232645457482</v>
+        <v>0.08312858429802403</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3077517638239446</v>
+        <v>0.03306845713213875</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0511952296648898</v>
+        <v>-0.1946587478882993</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05609232308170814</v>
+        <v>-0.1436737407902018</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3055211600490827</v>
+        <v>0.505066709000993</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3329382192762897</v>
+        <v>-0.190516667470793</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4080283334055994</v>
+        <v>-0.2638569970506434</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.07739394625656926</v>
+        <v>0.2090647205819709</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7152219633161284</v>
+        <v>0.486630850137098</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4788391467641893</v>
+        <v>0.4514491403256546</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2420743764804504</v>
+        <v>0.05566043503054856</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6121556972642829</v>
+        <v>0.4735548093906692</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4812683339135853</v>
+        <v>0.487923756907668</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.1251301205765565</v>
+        <v>0.2696529796721121</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07054660016783637</v>
+        <v>-0.566145512481497</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.5121310144655105</v>
+        <v>-0.5007083805169532</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.5511707972382892</v>
+        <v>-0.2523247940780802</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.261673788152365</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.3353160086758499</v>
       </c>
     </row>
   </sheetData>
